--- a/schemas/Remap Schema.xlsx
+++ b/schemas/Remap Schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="0" windowWidth="19060" windowHeight="20500" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="19060" windowHeight="20500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -1213,8 +1213,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1275,7 +1279,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1295,6 +1299,8 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1314,6 +1320,8 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1645,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6222,7 +6230,7 @@
         <v>10407</v>
       </c>
       <c r="B121">
-        <v>1020711</v>
+        <v>1020815</v>
       </c>
       <c r="C121" t="s">
         <v>301</v>
@@ -20931,7 +20939,7 @@
       </c>
       <c r="B120">
         <f>Master!B121</f>
-        <v>1020711</v>
+        <v>1020815</v>
       </c>
       <c r="C120" t="str">
         <f>Master!C121</f>
